--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigabyte\Desktop\result-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745DAD18-3579-4700-B266-ABC924DE35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2AF80-6D4D-43E6-9407-36F5607013E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11532" yWindow="6204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2157,7 +2157,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>2024331053</v>
       </c>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigabyte\Desktop\result-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E91C91E7-B5A9-4EB7-B8F1-B3F644BCA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74717DAE-F38F-4FA0-BE9B-B558712ADA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{BB48EE98-FBFA-455E-9E1F-E3E1EE7F3D8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB48EE98-FBFA-455E-9E1F-E3E1EE7F3D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Eng Lab</t>
   </si>
   <si>
-    <t>CG</t>
-  </si>
-  <si>
     <t>MAMNUNA HASAN</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>SHUDDHO SHARAF</t>
+  </si>
+  <si>
+    <t>CGPA</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1008,7 +1008,7 @@
         <v>2024331080</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>2024331001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8">
         <v>4</v>
@@ -1076,7 +1076,7 @@
         <v>2024331008</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>2024331010</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
@@ -1146,7 +1146,7 @@
         <v>2024331002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>3.75</v>
@@ -1181,7 +1181,7 @@
         <v>2024331020</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8">
         <v>3.75</v>
@@ -1216,7 +1216,7 @@
         <v>2024331030</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
@@ -1251,7 +1251,7 @@
         <v>2024331013</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8">
         <v>4</v>
@@ -1284,7 +1284,7 @@
         <v>2024331067</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -1317,7 +1317,7 @@
         <v>2024331070</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8">
         <v>4</v>
@@ -1352,7 +1352,7 @@
         <v>2024331082</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -1387,7 +1387,7 @@
         <v>2024331007</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8">
         <v>4</v>
@@ -1420,7 +1420,7 @@
         <v>2024331027</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>4</v>
@@ -1453,7 +1453,7 @@
         <v>2024331061</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8">
         <v>3.75</v>
@@ -1486,7 +1486,7 @@
         <v>2024331086</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
@@ -1521,7 +1521,7 @@
         <v>2024331022</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8">
         <v>4</v>
@@ -1556,7 +1556,7 @@
         <v>2024331015</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
@@ -1589,7 +1589,7 @@
         <v>2024331093</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
@@ -1622,7 +1622,7 @@
         <v>2024331028</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -1657,7 +1657,7 @@
         <v>2024331054</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8">
         <v>4</v>
@@ -1692,7 +1692,7 @@
         <v>2024331091</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5">
         <v>3.75</v>
@@ -1725,7 +1725,7 @@
         <v>2024331037</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="8">
         <v>3.5</v>
@@ -1758,7 +1758,7 @@
         <v>2024331024</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5">
         <v>3.25</v>
@@ -1793,7 +1793,7 @@
         <v>2024331059</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8">
         <v>3.5</v>
@@ -1826,7 +1826,7 @@
         <v>2024331071</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5">
         <v>4</v>
@@ -1859,7 +1859,7 @@
         <v>2024331075</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8">
         <v>4</v>
@@ -1892,7 +1892,7 @@
         <v>2024331088</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5">
         <v>3.75</v>
@@ -1927,7 +1927,7 @@
         <v>2024331038</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8">
         <v>3.5</v>
@@ -1962,7 +1962,7 @@
         <v>2024331068</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5">
         <v>3.25</v>
@@ -1997,7 +1997,7 @@
         <v>2024331040</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8">
         <v>3.5</v>
@@ -2032,7 +2032,7 @@
         <v>2024331043</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5">
         <v>3.5</v>
@@ -2065,7 +2065,7 @@
         <v>2024331032</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8">
         <v>4</v>
@@ -2100,7 +2100,7 @@
         <v>2024331072</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5">
         <v>3.25</v>
@@ -2135,7 +2135,7 @@
         <v>2024331036</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="8">
         <v>3</v>
@@ -2170,7 +2170,7 @@
         <v>2024331087</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5">
         <v>4</v>
@@ -2203,7 +2203,7 @@
         <v>2024331053</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="8">
         <v>3.25</v>
@@ -2236,7 +2236,7 @@
         <v>2024331063</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="5">
         <v>4</v>
@@ -2269,7 +2269,7 @@
         <v>2024331096</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="8">
         <v>3.5</v>
@@ -2304,7 +2304,7 @@
         <v>2024331116</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5">
         <v>3.75</v>
@@ -2339,7 +2339,7 @@
         <v>2024331094</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="8">
         <v>3.75</v>
@@ -2374,7 +2374,7 @@
         <v>2024331029</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="5">
         <v>3.75</v>
@@ -2407,7 +2407,7 @@
         <v>2024331003</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="8">
         <v>3.25</v>
@@ -2440,7 +2440,7 @@
         <v>2024331035</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5">
         <v>3.5</v>
@@ -2473,7 +2473,7 @@
         <v>2024331105</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="8">
         <v>3</v>
@@ -2508,7 +2508,7 @@
         <v>2024331103</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
         <v>4</v>
@@ -2541,7 +2541,7 @@
         <v>2024331044</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="8">
         <v>3.25</v>
@@ -2576,7 +2576,7 @@
         <v>2024331056</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="5">
         <v>3.75</v>
@@ -2611,7 +2611,7 @@
         <v>2024331057</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="8">
         <v>3.25</v>
@@ -2644,7 +2644,7 @@
         <v>2024331108</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="5">
         <v>3.75</v>
@@ -2679,7 +2679,7 @@
         <v>2024331066</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="8">
         <v>3.5</v>
@@ -2714,7 +2714,7 @@
         <v>2024331012</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
@@ -2749,7 +2749,7 @@
         <v>2024331026</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="8">
         <v>4</v>
@@ -2784,7 +2784,7 @@
         <v>2024331034</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
@@ -2819,7 +2819,7 @@
         <v>2024331039</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="8">
         <v>4</v>
@@ -2852,7 +2852,7 @@
         <v>2023331006</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5">
         <v>2.75</v>
@@ -2887,7 +2887,7 @@
         <v>2024331084</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="8">
         <v>4</v>
@@ -2922,7 +2922,7 @@
         <v>2024331006</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="5">
         <v>3.5</v>
@@ -2957,7 +2957,7 @@
         <v>2024331048</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="8">
         <v>2.5</v>
@@ -2992,7 +2992,7 @@
         <v>2024331014</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5">
         <v>3.75</v>
@@ -3027,7 +3027,7 @@
         <v>2024331077</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="8">
         <v>3.5</v>
@@ -3060,7 +3060,7 @@
         <v>2024331009</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
@@ -3093,7 +3093,7 @@
         <v>2024331074</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="8">
         <v>3.75</v>
@@ -3128,7 +3128,7 @@
         <v>2024331046</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="5">
         <v>3.75</v>
@@ -3163,7 +3163,7 @@
         <v>2024331106</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="8">
         <v>3.25</v>
@@ -3198,7 +3198,7 @@
         <v>2024331031</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="5">
         <v>3.25</v>
@@ -3233,7 +3233,7 @@
         <v>2024331076</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="8">
         <v>3.5</v>
@@ -3268,7 +3268,7 @@
         <v>2024331107</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="5">
         <v>3</v>
@@ -3301,7 +3301,7 @@
         <v>2024331090</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="8">
         <v>3.25</v>
@@ -3336,7 +3336,7 @@
         <v>2024331033</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="5">
         <v>3.25</v>
@@ -3369,7 +3369,7 @@
         <v>2024331113</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="8">
         <v>3.25</v>
@@ -3402,7 +3402,7 @@
         <v>2024331081</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
@@ -3435,7 +3435,7 @@
         <v>2024331042</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="8">
         <v>2.75</v>
@@ -3470,7 +3470,7 @@
         <v>2024331021</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="5">
         <v>3.25</v>
@@ -3503,7 +3503,7 @@
         <v>2024331052</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="8">
         <v>3.5</v>
@@ -3538,7 +3538,7 @@
         <v>2024331079</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="5">
         <v>2.75</v>
@@ -3571,7 +3571,7 @@
         <v>2024331078</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="8">
         <v>3</v>
@@ -3606,7 +3606,7 @@
         <v>2024331109</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5">
         <v>2.5</v>
@@ -3641,7 +3641,7 @@
         <v>2024331112</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="8">
         <v>2.5</v>
@@ -3676,7 +3676,7 @@
         <v>2024331047</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="5">
         <v>2.25</v>
@@ -3709,7 +3709,7 @@
         <v>2024331055</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="8">
         <v>2.75</v>
@@ -3742,7 +3742,7 @@
         <v>2024331069</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="5">
         <v>3</v>
@@ -3775,7 +3775,7 @@
         <v>2024331041</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="8">
         <v>2.25</v>
@@ -3808,7 +3808,7 @@
         <v>2024331016</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="5">
         <v>2.25</v>
@@ -3843,7 +3843,7 @@
         <v>2024331101</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="8">
         <v>2.5</v>
@@ -3876,7 +3876,7 @@
         <v>2024331115</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="5">
         <v>2.75</v>
@@ -3909,7 +3909,7 @@
         <v>2024331011</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="8">
         <v>3</v>
@@ -3942,7 +3942,7 @@
         <v>2024331092</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="5">
         <v>3</v>
@@ -3977,7 +3977,7 @@
         <v>2024331102</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="8">
         <v>2.5</v>
@@ -4012,7 +4012,7 @@
         <v>2024331104</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="5">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>2023331005</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="8">
         <v>2.5</v>
@@ -4080,7 +4080,7 @@
         <v>2023331103</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="5">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>2024331004</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="8">
         <v>3</v>
@@ -4148,7 +4148,7 @@
         <v>2024331005</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="5">
         <v>3.25</v>
@@ -4181,7 +4181,7 @@
         <v>2024331025</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="8">
         <v>2</v>
@@ -4214,7 +4214,7 @@
         <v>2024331058</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="5">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>2024331064</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="8">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>2024331100</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="5">
         <v>2.25</v>
@@ -4319,7 +4319,7 @@
         <v>2024331110</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="8">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2024331114</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="13">
         <v>3</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gigabyte\Desktop\result-portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AFC660-A617-4E26-ACD4-216061CFD144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD78A36E-010B-4092-99CC-464BFA4AD857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E4403F3-83A8-48DB-9DCD-456F56BFCAC9}"/>
   </bookViews>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,12 +409,6 @@
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -470,15 +464,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,9 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB06C58-1A1B-4870-868A-45CB7CF971F5}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,8 +860,10 @@
       <c r="F2" s="2">
         <v>3.25</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
+      <c r="G2" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="H2" s="3">
         <v>3</v>
       </c>
       <c r="I2" s="2">
@@ -905,10 +896,10 @@
       <c r="F3" s="2">
         <v>3.5</v>
       </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
         <v>4</v>
       </c>
       <c r="I3" s="2">
@@ -923,32 +914,34 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2023331103</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4">
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>3.25</v>
       </c>
       <c r="K4" s="2" cm="1">
@@ -975,8 +968,10 @@
       <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4">
+      <c r="G5" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="2">
@@ -987,38 +982,38 @@
       </c>
       <c r="K5" s="2" cm="1">
         <f t="array" ref="K5">IF(COUNTIF(C5:J5,0)&gt;0,0,ROUND(SUMPRODUCT(C5:J5,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C5:J5&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.97</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2024331002</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
         <v>4</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
         <v>3.75</v>
       </c>
       <c r="K6" s="2" cm="1">
@@ -1027,37 +1022,39 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2024331003</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="C7" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
         <v>4</v>
       </c>
       <c r="K7" s="2" cm="1">
         <f t="array" ref="K7">IF(COUNTIF(C7:J7,0)&gt;0,0,ROUND(SUMPRODUCT(C7:J7,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C7:J7&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.71</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -1079,10 +1076,10 @@
       <c r="F8" s="2">
         <v>3.75</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>4</v>
       </c>
       <c r="I8" s="2">
@@ -1097,32 +1094,34 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2024331005</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="E9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="J9" s="4">
         <v>3.75</v>
       </c>
       <c r="K9" s="2" cm="1">
@@ -1131,34 +1130,34 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>2024331006</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="4">
         <v>2.5</v>
       </c>
-      <c r="E10" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F10" s="4">
         <v>4</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="H10" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4">
         <v>4</v>
       </c>
       <c r="K10" s="2" cm="1">
@@ -1167,68 +1166,70 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2024331007</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5">
-        <v>4</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
         <v>3.75</v>
       </c>
       <c r="K11" s="2" cm="1">
         <f t="array" ref="K11">IF(COUNTIF(C11:J11,0)&gt;0,0,ROUND(SUMPRODUCT(C11:J11,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C11:J11&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.9</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2024331008</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
         <v>4</v>
       </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="4">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
         <v>3.75</v>
       </c>
       <c r="K12" s="2" cm="1">
@@ -1237,37 +1238,39 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>2024331009</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="D13" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
         <v>4</v>
       </c>
       <c r="K13" s="2" cm="1">
         <f t="array" ref="K13">IF(COUNTIF(C13:J13,0)&gt;0,0,ROUND(SUMPRODUCT(C13:J13,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C13:J13&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -1289,10 +1292,10 @@
       <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>4</v>
       </c>
       <c r="I14" s="2">
@@ -1325,8 +1328,10 @@
       <c r="F15" s="2">
         <v>2.75</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4">
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>2.75</v>
       </c>
       <c r="I15" s="2">
@@ -1337,7 +1342,7 @@
       </c>
       <c r="K15" s="2" cm="1">
         <f t="array" ref="K15">IF(COUNTIF(C15:J15,0)&gt;0,0,ROUND(SUMPRODUCT(C15:J15,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C15:J15&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -1359,10 +1364,10 @@
       <c r="F16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>3.25</v>
       </c>
       <c r="I16" s="2">
@@ -1395,8 +1400,10 @@
       <c r="F17" s="2">
         <v>4</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4">
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>3.5</v>
       </c>
       <c r="I17" s="2">
@@ -1411,34 +1418,34 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>2024331014</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="C18" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F18" s="4">
         <v>3.25</v>
       </c>
       <c r="G18" s="5">
         <v>3.25</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="5">
-        <v>4</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
         <v>3.5</v>
       </c>
       <c r="K18" s="2" cm="1">
@@ -1447,68 +1454,70 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>2024331015</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J19" s="4">
         <v>3.25</v>
       </c>
       <c r="K19" s="2" cm="1">
         <f t="array" ref="K19">IF(COUNTIF(C19:J19,0)&gt;0,0,ROUND(SUMPRODUCT(C19:J19,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C19:J19&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>2024331016</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2.25</v>
       </c>
-      <c r="D20" s="5">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>3.25</v>
       </c>
       <c r="G20" s="5">
         <v>2.5</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2.75</v>
       </c>
-      <c r="I20" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="I20" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J20" s="4">
         <v>4</v>
       </c>
       <c r="K20" s="2" cm="1">
@@ -1535,10 +1544,10 @@
       <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>3.75</v>
       </c>
       <c r="I21" s="2">
@@ -1553,68 +1562,70 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>2024331021</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E22" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F22" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4">
+      <c r="C22" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H22" s="3">
         <v>2.5</v>
       </c>
-      <c r="I22" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J22" s="4">
         <v>3.75</v>
       </c>
       <c r="K22" s="2" cm="1">
         <f t="array" ref="K22">IF(COUNTIF(C22:J22,0)&gt;0,0,ROUND(SUMPRODUCT(C22:J22,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C22:J22&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>2024331022</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="4">
         <v>4</v>
       </c>
       <c r="G23" s="5">
         <v>4</v>
       </c>
-      <c r="H23" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I23" s="5">
-        <v>4</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="H23" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
         <v>3.25</v>
       </c>
       <c r="K23" s="2" cm="1">
@@ -1623,34 +1634,34 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2024331024</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D24" s="5">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="C24" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F24" s="4">
         <v>4</v>
       </c>
       <c r="G24" s="5">
         <v>3.75</v>
       </c>
-      <c r="H24" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I24" s="5">
-        <v>4</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="H24" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4</v>
+      </c>
+      <c r="J24" s="4">
         <v>4</v>
       </c>
       <c r="K24" s="2" cm="1">
@@ -1677,8 +1688,10 @@
       <c r="F25" s="2">
         <v>2.75</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4">
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
         <v>2</v>
       </c>
       <c r="I25" s="2">
@@ -1693,34 +1706,34 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>2024331026</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="4">
         <v>3.5</v>
       </c>
       <c r="G26" s="5">
         <v>4</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>2.75</v>
       </c>
-      <c r="I26" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J26" s="5">
+      <c r="I26" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J26" s="4">
         <v>3.5</v>
       </c>
       <c r="K26" s="2" cm="1">
@@ -1747,8 +1760,10 @@
       <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4">
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
         <v>3.75</v>
       </c>
       <c r="I27" s="2">
@@ -1759,38 +1774,38 @@
       </c>
       <c r="K27" s="2" cm="1">
         <f t="array" ref="K27">IF(COUNTIF(C27:J27,0)&gt;0,0,ROUND(SUMPRODUCT(C27:J27,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C27:J27&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2024331028</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5">
-        <v>4</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
         <v>4</v>
       </c>
       <c r="G28" s="5">
         <v>3.75</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>3</v>
       </c>
-      <c r="I28" s="5">
-        <v>4</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="I28" s="4">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
         <v>3.5</v>
       </c>
       <c r="K28" s="2" cm="1">
@@ -1817,8 +1832,10 @@
       <c r="F29" s="2">
         <v>3.75</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4">
+      <c r="G29" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H29" s="3">
         <v>2.75</v>
       </c>
       <c r="I29" s="2">
@@ -1829,38 +1846,38 @@
       </c>
       <c r="K29" s="2" cm="1">
         <f t="array" ref="K29">IF(COUNTIF(C29:J29,0)&gt;0,0,ROUND(SUMPRODUCT(C29:J29,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C29:J29&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>2024331030</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="5">
-        <v>4</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
         <v>4</v>
       </c>
       <c r="G30" s="5">
         <v>4</v>
       </c>
-      <c r="H30" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I30" s="5">
-        <v>4</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="H30" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4</v>
+      </c>
+      <c r="J30" s="4">
         <v>4</v>
       </c>
       <c r="K30" s="2" cm="1">
@@ -1869,34 +1886,34 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>2024331031</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="E31" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="C31" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F31" s="4">
         <v>3.5</v>
       </c>
       <c r="G31" s="5">
         <v>3.25</v>
       </c>
-      <c r="H31" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I31" s="5">
-        <v>4</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="H31" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4</v>
+      </c>
+      <c r="J31" s="4">
         <v>4</v>
       </c>
       <c r="K31" s="2" cm="1">
@@ -1923,10 +1940,10 @@
       <c r="F32" s="2">
         <v>3.75</v>
       </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="5">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>3.5</v>
       </c>
       <c r="I32" s="2">
@@ -1941,37 +1958,39 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2024331033</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E33" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F33" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I33" s="5">
-        <v>4</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="C33" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I33" s="4">
+        <v>4</v>
+      </c>
+      <c r="J33" s="4">
         <v>3.5</v>
       </c>
       <c r="K33" s="2" cm="1">
         <f t="array" ref="K33">IF(COUNTIF(C33:J33,0)&gt;0,0,ROUND(SUMPRODUCT(C33:J33,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C33:J33&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -1993,10 +2012,10 @@
       <c r="F34" s="2">
         <v>4</v>
       </c>
-      <c r="G34" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H34" s="3">
         <v>3.5</v>
       </c>
       <c r="I34" s="2">
@@ -2011,37 +2030,39 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>2024331035</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E35" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I35" s="5">
-        <v>4</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="C35" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I35" s="4">
+        <v>4</v>
+      </c>
+      <c r="J35" s="4">
         <v>3.25</v>
       </c>
       <c r="K35" s="2" cm="1">
         <f t="array" ref="K35">IF(COUNTIF(C35:J35,0)&gt;0,0,ROUND(SUMPRODUCT(C35:J35,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C35:J35&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -2063,10 +2084,10 @@
       <c r="F36" s="2">
         <v>4</v>
       </c>
-      <c r="G36" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H36" s="3">
         <v>4</v>
       </c>
       <c r="I36" s="2">
@@ -2099,8 +2120,10 @@
       <c r="F37" s="2">
         <v>4</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4">
+      <c r="G37" s="5">
+        <v>4</v>
+      </c>
+      <c r="H37" s="3">
         <v>3.75</v>
       </c>
       <c r="I37" s="2">
@@ -2111,7 +2134,7 @@
       </c>
       <c r="K37" s="2" cm="1">
         <f t="array" ref="K37">IF(COUNTIF(C37:J37,0)&gt;0,0,ROUND(SUMPRODUCT(C37:J37,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C37:J37&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -2133,10 +2156,10 @@
       <c r="F38" s="2">
         <v>3.75</v>
       </c>
-      <c r="G38" s="2">
-        <v>4</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38" s="5">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3">
         <v>3.25</v>
       </c>
       <c r="I38" s="2">
@@ -2151,37 +2174,39 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>2024331039</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="5">
-        <v>4</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F39" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I39" s="5">
-        <v>4</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="C39" s="4">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I39" s="4">
+        <v>4</v>
+      </c>
+      <c r="J39" s="4">
         <v>3.5</v>
       </c>
       <c r="K39" s="2" cm="1">
         <f t="array" ref="K39">IF(COUNTIF(C39:J39,0)&gt;0,0,ROUND(SUMPRODUCT(C39:J39,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C39:J39&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.64</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -2203,10 +2228,10 @@
       <c r="F40" s="2">
         <v>3.75</v>
       </c>
-      <c r="G40" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H40" s="3">
         <v>3.5</v>
       </c>
       <c r="I40" s="2">
@@ -2239,8 +2264,10 @@
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4">
+      <c r="G41" s="5">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
         <v>2.75</v>
       </c>
       <c r="I41" s="2">
@@ -2251,7 +2278,7 @@
       </c>
       <c r="K41" s="2" cm="1">
         <f t="array" ref="K41">IF(COUNTIF(C41:J41,0)&gt;0,0,ROUND(SUMPRODUCT(C41:J41,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C41:J41&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -2273,10 +2300,10 @@
       <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="2">
-        <v>4</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="5">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>2.75</v>
       </c>
       <c r="I42" s="2">
@@ -2291,68 +2318,70 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>2024331043</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D43" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E43" s="5">
-        <v>4</v>
-      </c>
-      <c r="F43" s="5">
-        <v>4</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I43" s="5">
-        <v>4</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="C43" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4</v>
+      </c>
+      <c r="J43" s="4">
         <v>3.5</v>
       </c>
       <c r="K43" s="2" cm="1">
         <f t="array" ref="K43">IF(COUNTIF(C43:J43,0)&gt;0,0,ROUND(SUMPRODUCT(C43:J43,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C43:J43&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>2024331044</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D44" s="5">
-        <v>4</v>
-      </c>
-      <c r="E44" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="C44" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F44" s="4">
         <v>4</v>
       </c>
       <c r="G44" s="5">
         <v>4</v>
       </c>
-      <c r="H44" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I44" s="5">
-        <v>4</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="H44" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4</v>
+      </c>
+      <c r="J44" s="4">
         <v>3.75</v>
       </c>
       <c r="K44" s="2" cm="1">
@@ -2361,34 +2390,34 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>2024331046</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D45" s="5">
-        <v>4</v>
-      </c>
-      <c r="E45" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="C45" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F45" s="4">
         <v>3</v>
       </c>
       <c r="G45" s="5">
         <v>3.75</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <v>3</v>
       </c>
-      <c r="I45" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="I45" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J45" s="4">
         <v>4</v>
       </c>
       <c r="K45" s="2" cm="1">
@@ -2397,32 +2426,34 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>2024331047</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>2.25</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>2.75</v>
       </c>
-      <c r="E46" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F46" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>4</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="E46" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4</v>
+      </c>
+      <c r="J46" s="4">
         <v>4</v>
       </c>
       <c r="K46" s="2" cm="1">
@@ -2449,10 +2480,10 @@
       <c r="F47" s="2">
         <v>3.5</v>
       </c>
-      <c r="G47" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G47" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H47" s="3">
         <v>4</v>
       </c>
       <c r="I47" s="2">
@@ -2485,10 +2516,10 @@
       <c r="F48" s="2">
         <v>3.25</v>
       </c>
-      <c r="G48" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G48" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H48" s="3">
         <v>2.75</v>
       </c>
       <c r="I48" s="2">
@@ -2503,37 +2534,39 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>2024331053</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D49" s="5">
-        <v>4</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F49" s="5">
-        <v>4</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I49" s="5">
-        <v>4</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="C49" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4</v>
+      </c>
+      <c r="J49" s="4">
         <v>3.75</v>
       </c>
       <c r="K49" s="2" cm="1">
         <f t="array" ref="K49">IF(COUNTIF(C49:J49,0)&gt;0,0,ROUND(SUMPRODUCT(C49:J49,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C49:J49&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -2555,10 +2588,10 @@
       <c r="F50" s="2">
         <v>4</v>
       </c>
-      <c r="G50" s="2">
-        <v>4</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="5">
+        <v>4</v>
+      </c>
+      <c r="H50" s="3">
         <v>3.25</v>
       </c>
       <c r="I50" s="2">
@@ -2591,8 +2624,10 @@
       <c r="F51" s="2">
         <v>3.75</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4">
+      <c r="G51" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H51" s="3">
         <v>2.75</v>
       </c>
       <c r="I51" s="2">
@@ -2603,7 +2638,7 @@
       </c>
       <c r="K51" s="2" cm="1">
         <f t="array" ref="K51">IF(COUNTIF(C51:J51,0)&gt;0,0,ROUND(SUMPRODUCT(C51:J51,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C51:J51&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -2625,10 +2660,10 @@
       <c r="F52" s="2">
         <v>4</v>
       </c>
-      <c r="G52" s="2">
-        <v>4</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G52" s="5">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>2.75</v>
       </c>
       <c r="I52" s="2">
@@ -2643,68 +2678,70 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>2024331057</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E53" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F53" s="5">
-        <v>4</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="4">
-        <v>4</v>
-      </c>
-      <c r="I53" s="5">
-        <v>4</v>
-      </c>
-      <c r="J53" s="5">
+      <c r="C53" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3">
+        <v>4</v>
+      </c>
+      <c r="I53" s="4">
+        <v>4</v>
+      </c>
+      <c r="J53" s="4">
         <v>3.5</v>
       </c>
       <c r="K53" s="2" cm="1">
         <f t="array" ref="K53">IF(COUNTIF(C53:J53,0)&gt;0,0,ROUND(SUMPRODUCT(C53:J53,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C53:J53&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>2024331058</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>0</v>
       </c>
-      <c r="D54" s="5">
-        <v>4</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="D54" s="4">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4">
         <v>2</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>2.25</v>
       </c>
       <c r="G54" s="5">
         <v>3</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <v>2.75</v>
       </c>
-      <c r="I54" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="I54" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="J54" s="4">
         <v>3.25</v>
       </c>
       <c r="K54" s="2" cm="1">
@@ -2731,8 +2768,10 @@
       <c r="F55" s="2">
         <v>4</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="4">
+      <c r="G55" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H55" s="3">
         <v>3.25</v>
       </c>
       <c r="I55" s="2">
@@ -2743,36 +2782,38 @@
       </c>
       <c r="K55" s="2" cm="1">
         <f t="array" ref="K55">IF(COUNTIF(C55:J55,0)&gt;0,0,ROUND(SUMPRODUCT(C55:J55,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C55:J55&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>2024331061</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4</v>
-      </c>
-      <c r="E56" s="5">
-        <v>4</v>
-      </c>
-      <c r="F56" s="5">
-        <v>4</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I56" s="5">
-        <v>4</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="C56" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4</v>
+      </c>
+      <c r="G56" s="5">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I56" s="4">
+        <v>4</v>
+      </c>
+      <c r="J56" s="4">
         <v>3.25</v>
       </c>
       <c r="K56" s="2" cm="1">
@@ -2799,8 +2840,10 @@
       <c r="F57" s="2">
         <v>3.75</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4">
+      <c r="G57" s="5">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>2.75</v>
       </c>
       <c r="I57" s="2">
@@ -2811,7 +2854,7 @@
       </c>
       <c r="K57" s="2" cm="1">
         <f t="array" ref="K57">IF(COUNTIF(C57:J57,0)&gt;0,0,ROUND(SUMPRODUCT(C57:J57,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C57:J57&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -2833,10 +2876,10 @@
       <c r="F58" s="2">
         <v>3.5</v>
       </c>
-      <c r="G58" s="2">
-        <v>4</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="G58" s="5">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>4</v>
       </c>
       <c r="I58" s="2">
@@ -2869,10 +2912,10 @@
       <c r="F59" s="2">
         <v>3.75</v>
       </c>
-      <c r="G59" s="2">
-        <v>4</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="G59" s="5">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>3.75</v>
       </c>
       <c r="I59" s="2">
@@ -2905,8 +2948,10 @@
       <c r="F60" s="2">
         <v>3.75</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4">
+      <c r="G60" s="5">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
         <v>3.5</v>
       </c>
       <c r="I60" s="2">
@@ -2921,34 +2966,34 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>2024331068</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D61" s="5">
-        <v>4</v>
-      </c>
-      <c r="E61" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F61" s="5">
+      <c r="C61" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F61" s="4">
         <v>4</v>
       </c>
       <c r="G61" s="5">
         <v>4</v>
       </c>
-      <c r="H61" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I61" s="5">
-        <v>4</v>
-      </c>
-      <c r="J61" s="5">
+      <c r="H61" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I61" s="4">
+        <v>4</v>
+      </c>
+      <c r="J61" s="4">
         <v>4</v>
       </c>
       <c r="K61" s="2" cm="1">
@@ -2957,68 +3002,70 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>2024331069</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>3</v>
       </c>
-      <c r="D62" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E62" s="5">
+      <c r="D62" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E62" s="4">
         <v>3</v>
       </c>
-      <c r="F62" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="4">
+      <c r="F62" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G62" s="5">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
         <v>2.75</v>
       </c>
-      <c r="I62" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="J62" s="5">
+      <c r="I62" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J62" s="4">
         <v>3.5</v>
       </c>
       <c r="K62" s="2" cm="1">
         <f t="array" ref="K62">IF(COUNTIF(C62:J62,0)&gt;0,0,ROUND(SUMPRODUCT(C62:J62,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C62:J62&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>2024331070</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="5">
-        <v>4</v>
-      </c>
-      <c r="D63" s="5">
-        <v>4</v>
-      </c>
-      <c r="E63" s="5">
-        <v>4</v>
-      </c>
-      <c r="F63" s="5">
+      <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4</v>
+      </c>
+      <c r="F63" s="4">
         <v>4</v>
       </c>
       <c r="G63" s="5">
         <v>4</v>
       </c>
-      <c r="H63" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I63" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J63" s="5">
+      <c r="H63" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I63" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J63" s="4">
         <v>3.5</v>
       </c>
       <c r="K63" s="2" cm="1">
@@ -3027,68 +3074,70 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>2024331071</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="5">
-        <v>4</v>
-      </c>
-      <c r="D64" s="5">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5">
-        <v>4</v>
-      </c>
-      <c r="F64" s="5">
-        <v>4</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="4">
+      <c r="C64" s="4">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4</v>
+      </c>
+      <c r="G64" s="5">
+        <v>4</v>
+      </c>
+      <c r="H64" s="3">
         <v>2.75</v>
       </c>
-      <c r="I64" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J64" s="5">
+      <c r="I64" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J64" s="4">
         <v>3.75</v>
       </c>
       <c r="K64" s="2" cm="1">
         <f t="array" ref="K64">IF(COUNTIF(C64:J64,0)&gt;0,0,ROUND(SUMPRODUCT(C64:J64,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C64:J64&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>2024331072</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D65" s="5">
-        <v>4</v>
-      </c>
-      <c r="E65" s="5">
-        <v>4</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="C65" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4">
         <v>4</v>
       </c>
       <c r="G65" s="5">
         <v>4</v>
       </c>
-      <c r="H65" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I65" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="H65" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I65" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J65" s="4">
         <v>3.5</v>
       </c>
       <c r="K65" s="2" cm="1">
@@ -3115,10 +3164,10 @@
       <c r="F66" s="2">
         <v>3.25</v>
       </c>
-      <c r="G66" s="2">
-        <v>4</v>
-      </c>
-      <c r="H66" s="4">
+      <c r="G66" s="5">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3">
         <v>3</v>
       </c>
       <c r="I66" s="2">
@@ -3151,8 +3200,10 @@
       <c r="F67" s="2">
         <v>3.75</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4">
+      <c r="G67" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H67" s="3">
         <v>3.25</v>
       </c>
       <c r="I67" s="2">
@@ -3163,7 +3214,7 @@
       </c>
       <c r="K67" s="2" cm="1">
         <f t="array" ref="K67">IF(COUNTIF(C67:J67,0)&gt;0,0,ROUND(SUMPRODUCT(C67:J67,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C67:J67&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
@@ -3185,10 +3236,10 @@
       <c r="F68" s="2">
         <v>4</v>
       </c>
-      <c r="G68" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="G68" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H68" s="3">
         <v>3.25</v>
       </c>
       <c r="I68" s="2">
@@ -3221,8 +3272,10 @@
       <c r="F69" s="2">
         <v>3.5</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4">
+      <c r="G69" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H69" s="3">
         <v>3</v>
       </c>
       <c r="I69" s="2">
@@ -3255,10 +3308,10 @@
       <c r="F70" s="2">
         <v>4</v>
       </c>
-      <c r="G70" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="G70" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H70" s="3">
         <v>3.25</v>
       </c>
       <c r="I70" s="2">
@@ -3273,68 +3326,70 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>2024331079</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>2.75</v>
       </c>
-      <c r="D71" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E71" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F71" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="4">
+      <c r="D71" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="G71" s="5">
         <v>2.75</v>
       </c>
-      <c r="I71" s="5">
-        <v>4</v>
-      </c>
-      <c r="J71" s="5">
+      <c r="H71" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="I71" s="4">
+        <v>4</v>
+      </c>
+      <c r="J71" s="4">
         <v>3.75</v>
       </c>
       <c r="K71" s="2" cm="1">
         <f t="array" ref="K71">IF(COUNTIF(C71:J71,0)&gt;0,0,ROUND(SUMPRODUCT(C71:J71,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C71:J71&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.36</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>2024331080</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="5">
-        <v>4</v>
-      </c>
-      <c r="D72" s="5">
-        <v>4</v>
-      </c>
-      <c r="E72" s="5">
-        <v>4</v>
-      </c>
-      <c r="F72" s="5">
+      <c r="C72" s="4">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4">
+        <v>4</v>
+      </c>
+      <c r="E72" s="4">
+        <v>4</v>
+      </c>
+      <c r="F72" s="4">
         <v>4</v>
       </c>
       <c r="G72" s="5">
         <v>4</v>
       </c>
-      <c r="H72" s="4">
-        <v>4</v>
-      </c>
-      <c r="I72" s="5">
-        <v>4</v>
-      </c>
-      <c r="J72" s="5">
+      <c r="H72" s="3">
+        <v>4</v>
+      </c>
+      <c r="I72" s="4">
+        <v>4</v>
+      </c>
+      <c r="J72" s="4">
         <v>3.75</v>
       </c>
       <c r="K72" s="2" cm="1">
@@ -3343,37 +3398,39 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>2024331081</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>3</v>
       </c>
-      <c r="D73" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="E73" s="5">
+      <c r="D73" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E73" s="4">
         <v>3</v>
       </c>
-      <c r="F73" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I73" s="5">
-        <v>4</v>
-      </c>
-      <c r="J73" s="5">
+      <c r="F73" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="G73" s="5">
+        <v>3</v>
+      </c>
+      <c r="H73" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I73" s="4">
+        <v>4</v>
+      </c>
+      <c r="J73" s="4">
         <v>4</v>
       </c>
       <c r="K73" s="2" cm="1">
         <f t="array" ref="K73">IF(COUNTIF(C73:J73,0)&gt;0,0,ROUND(SUMPRODUCT(C73:J73,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C73:J73&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -3395,10 +3452,10 @@
       <c r="F74" s="2">
         <v>4</v>
       </c>
-      <c r="G74" s="2">
-        <v>4</v>
-      </c>
-      <c r="H74" s="4">
+      <c r="G74" s="5">
+        <v>4</v>
+      </c>
+      <c r="H74" s="3">
         <v>3.5</v>
       </c>
       <c r="I74" s="2">
@@ -3413,34 +3470,34 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>2024331084</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="5">
-        <v>4</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4</v>
-      </c>
-      <c r="E75" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F75" s="5">
+      <c r="C75" s="4">
+        <v>4</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F75" s="4">
         <v>3.75</v>
       </c>
       <c r="G75" s="5">
         <v>3.5</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <v>2.75</v>
       </c>
-      <c r="I75" s="5">
-        <v>4</v>
-      </c>
-      <c r="J75" s="5">
+      <c r="I75" s="4">
+        <v>4</v>
+      </c>
+      <c r="J75" s="4">
         <v>3.5</v>
       </c>
       <c r="K75" s="2" cm="1">
@@ -3467,10 +3524,10 @@
       <c r="F76" s="2">
         <v>4</v>
       </c>
-      <c r="G76" s="2">
-        <v>4</v>
-      </c>
-      <c r="H76" s="4">
+      <c r="G76" s="5">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3">
         <v>3.5</v>
       </c>
       <c r="I76" s="2">
@@ -3503,8 +3560,10 @@
       <c r="F77" s="2">
         <v>4</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4">
+      <c r="G77" s="5">
+        <v>4</v>
+      </c>
+      <c r="H77" s="3">
         <v>2.75</v>
       </c>
       <c r="I77" s="2">
@@ -3515,38 +3574,38 @@
       </c>
       <c r="K77" s="2" cm="1">
         <f t="array" ref="K77">IF(COUNTIF(C77:J77,0)&gt;0,0,ROUND(SUMPRODUCT(C77:J77,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C77:J77&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>2024331088</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D78" s="5">
-        <v>4</v>
-      </c>
-      <c r="E78" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F78" s="5">
+      <c r="C78" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4</v>
+      </c>
+      <c r="E78" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F78" s="4">
         <v>4</v>
       </c>
       <c r="G78" s="5">
         <v>3.75</v>
       </c>
-      <c r="H78" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I78" s="5">
-        <v>4</v>
-      </c>
-      <c r="J78" s="5">
+      <c r="H78" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I78" s="4">
+        <v>4</v>
+      </c>
+      <c r="J78" s="4">
         <v>3.75</v>
       </c>
       <c r="K78" s="2" cm="1">
@@ -3573,10 +3632,10 @@
       <c r="F79" s="2">
         <v>4</v>
       </c>
-      <c r="G79" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="G79" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H79" s="3">
         <v>3.5</v>
       </c>
       <c r="I79" s="2">
@@ -3591,68 +3650,70 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>2024331091</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D80" s="5">
-        <v>4</v>
-      </c>
-      <c r="E80" s="5">
-        <v>4</v>
-      </c>
-      <c r="F80" s="5">
-        <v>4</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I80" s="5">
-        <v>4</v>
-      </c>
-      <c r="J80" s="5">
+      <c r="C80" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D80" s="4">
+        <v>4</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4">
+        <v>4</v>
+      </c>
+      <c r="G80" s="5">
+        <v>4</v>
+      </c>
+      <c r="H80" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I80" s="4">
+        <v>4</v>
+      </c>
+      <c r="J80" s="4">
         <v>4</v>
       </c>
       <c r="K80" s="2" cm="1">
         <f t="array" ref="K80">IF(COUNTIF(C80:J80,0)&gt;0,0,ROUND(SUMPRODUCT(C80:J80,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C80:J80&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>2024331092</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>3</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>3</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>2.75</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>2.75</v>
       </c>
       <c r="G81" s="5">
         <v>3.25</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <v>3</v>
       </c>
-      <c r="I81" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="J81" s="5">
+      <c r="I81" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J81" s="4">
         <v>3.75</v>
       </c>
       <c r="K81" s="2" cm="1">
@@ -3679,8 +3740,10 @@
       <c r="F82" s="2">
         <v>4</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4">
+      <c r="G82" s="5">
+        <v>4</v>
+      </c>
+      <c r="H82" s="3">
         <v>3.5</v>
       </c>
       <c r="I82" s="2">
@@ -3691,38 +3754,38 @@
       </c>
       <c r="K82" s="2" cm="1">
         <f t="array" ref="K82">IF(COUNTIF(C82:J82,0)&gt;0,0,ROUND(SUMPRODUCT(C82:J82,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C82:J82&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>2024331094</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="D83" s="5">
-        <v>4</v>
-      </c>
-      <c r="E83" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F83" s="5">
+      <c r="C83" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="D83" s="4">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F83" s="4">
         <v>4</v>
       </c>
       <c r="G83" s="5">
         <v>3.75</v>
       </c>
-      <c r="H83" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I83" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J83" s="5">
+      <c r="H83" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I83" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J83" s="4">
         <v>4</v>
       </c>
       <c r="K83" s="2" cm="1">
@@ -3731,34 +3794,34 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>2024331096</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C84" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="D84" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E84" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F84" s="5">
+      <c r="C84" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F84" s="4">
         <v>4</v>
       </c>
       <c r="G84" s="5">
         <v>4</v>
       </c>
-      <c r="H84" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="I84" s="5">
-        <v>4</v>
-      </c>
-      <c r="J84" s="5">
+      <c r="H84" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="I84" s="4">
+        <v>4</v>
+      </c>
+      <c r="J84" s="4">
         <v>4</v>
       </c>
       <c r="K84" s="2" cm="1">
@@ -3767,34 +3830,34 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>2024331100</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>2.25</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>0</v>
       </c>
-      <c r="E85" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="F85" s="5">
+      <c r="E85" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F85" s="4">
         <v>4</v>
       </c>
       <c r="G85" s="5">
         <v>4</v>
       </c>
-      <c r="H85" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I85" s="5">
-        <v>4</v>
-      </c>
-      <c r="J85" s="5">
+      <c r="H85" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I85" s="4">
+        <v>4</v>
+      </c>
+      <c r="J85" s="4">
         <v>3.75</v>
       </c>
       <c r="K85" s="2" cm="1">
@@ -3821,8 +3884,10 @@
       <c r="F86" s="2">
         <v>3.25</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4">
+      <c r="G86" s="5">
+        <v>4</v>
+      </c>
+      <c r="H86" s="3">
         <v>2.5</v>
       </c>
       <c r="I86" s="2">
@@ -3833,7 +3898,7 @@
       </c>
       <c r="K86" s="2" cm="1">
         <f t="array" ref="K86">IF(COUNTIF(C86:J86,0)&gt;0,0,ROUND(SUMPRODUCT(C86:J86,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C86:J86&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -3855,10 +3920,10 @@
       <c r="F87" s="2">
         <v>2.25</v>
       </c>
-      <c r="G87" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="G87" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="H87" s="3">
         <v>2.5</v>
       </c>
       <c r="I87" s="2">
@@ -3873,68 +3938,70 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>2024331103</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="5">
-        <v>4</v>
-      </c>
-      <c r="D88" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="E88" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F88" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="4">
-        <v>4</v>
-      </c>
-      <c r="I88" s="5">
-        <v>4</v>
-      </c>
-      <c r="J88" s="5">
+      <c r="C88" s="4">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F88" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G88" s="5">
+        <v>4</v>
+      </c>
+      <c r="H88" s="3">
+        <v>4</v>
+      </c>
+      <c r="I88" s="4">
+        <v>4</v>
+      </c>
+      <c r="J88" s="4">
         <v>3.75</v>
       </c>
       <c r="K88" s="2" cm="1">
         <f t="array" ref="K88">IF(COUNTIF(C88:J88,0)&gt;0,0,ROUND(SUMPRODUCT(C88:J88,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C88:J88&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>2024331104</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>2</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>2.5</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>2.25</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <v>2.5</v>
       </c>
       <c r="G89" s="5">
         <v>3.5</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="3">
         <v>2.25</v>
       </c>
-      <c r="I89" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="J89" s="5">
+      <c r="I89" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="J89" s="4">
         <v>3.5</v>
       </c>
       <c r="K89" s="2" cm="1">
@@ -3961,10 +4028,10 @@
       <c r="F90" s="2">
         <v>4</v>
       </c>
-      <c r="G90" s="2">
-        <v>4</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G90" s="5">
+        <v>4</v>
+      </c>
+      <c r="H90" s="3">
         <v>3.25</v>
       </c>
       <c r="I90" s="2">
@@ -3997,10 +4064,10 @@
       <c r="F91" s="2">
         <v>3</v>
       </c>
-      <c r="G91" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="G91" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H91" s="3">
         <v>4</v>
       </c>
       <c r="I91" s="2">
@@ -4015,37 +4082,39 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>2024331107</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>3</v>
       </c>
-      <c r="D92" s="5">
-        <v>4</v>
-      </c>
-      <c r="E92" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="F92" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="4">
-        <v>3.25</v>
-      </c>
-      <c r="I92" s="5">
-        <v>4</v>
-      </c>
-      <c r="J92" s="5">
+      <c r="D92" s="4">
+        <v>4</v>
+      </c>
+      <c r="E92" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="G92" s="5">
+        <v>4</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="I92" s="4">
+        <v>4</v>
+      </c>
+      <c r="J92" s="4">
         <v>3.5</v>
       </c>
       <c r="K92" s="2" cm="1">
         <f t="array" ref="K92">IF(COUNTIF(C92:J92,0)&gt;0,0,ROUND(SUMPRODUCT(C92:J92,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C92:J92&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.51</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -4067,10 +4136,10 @@
       <c r="F93" s="2">
         <v>3.25</v>
       </c>
-      <c r="G93" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H93" s="4">
+      <c r="G93" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H93" s="3">
         <v>3.5</v>
       </c>
       <c r="I93" s="2">
@@ -4085,34 +4154,34 @@
       </c>
     </row>
     <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>2024331109</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>2.5</v>
       </c>
-      <c r="D94" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="D94" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E94" s="4">
         <v>3</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <v>3.25</v>
       </c>
       <c r="G94" s="5">
         <v>3.5</v>
       </c>
-      <c r="H94" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I94" s="5">
-        <v>4</v>
-      </c>
-      <c r="J94" s="5">
+      <c r="H94" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I94" s="4">
+        <v>4</v>
+      </c>
+      <c r="J94" s="4">
         <v>3.75</v>
       </c>
       <c r="K94" s="2" cm="1">
@@ -4139,10 +4208,10 @@
       <c r="F95" s="2">
         <v>2.5</v>
       </c>
-      <c r="G95" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="G95" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H95" s="3">
         <v>3</v>
       </c>
       <c r="I95" s="2">
@@ -4175,10 +4244,10 @@
       <c r="F96" s="2">
         <v>3.25</v>
       </c>
-      <c r="G96" s="2">
-        <v>4</v>
-      </c>
-      <c r="H96" s="4">
+      <c r="G96" s="5">
+        <v>4</v>
+      </c>
+      <c r="H96" s="3">
         <v>3.5</v>
       </c>
       <c r="I96" s="2">
@@ -4211,8 +4280,10 @@
       <c r="F97" s="2">
         <v>3.75</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4">
+      <c r="G97" s="5">
+        <v>4</v>
+      </c>
+      <c r="H97" s="3">
         <v>2.75</v>
       </c>
       <c r="I97" s="2">
@@ -4223,38 +4294,38 @@
       </c>
       <c r="K97" s="2" cm="1">
         <f t="array" ref="K97">IF(COUNTIF(C97:J97,0)&gt;0,0,ROUND(SUMPRODUCT(C97:J97,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C97:J97&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>2024331114</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>3</v>
       </c>
-      <c r="D98" s="5">
-        <v>4</v>
-      </c>
-      <c r="E98" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F98" s="5">
+      <c r="D98" s="4">
+        <v>4</v>
+      </c>
+      <c r="E98" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F98" s="4">
         <v>2.25</v>
       </c>
       <c r="G98" s="5">
         <v>0</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="3">
         <v>2.5</v>
       </c>
-      <c r="I98" s="5">
-        <v>4</v>
-      </c>
-      <c r="J98" s="5">
+      <c r="I98" s="4">
+        <v>4</v>
+      </c>
+      <c r="J98" s="4">
         <v>4</v>
       </c>
       <c r="K98" s="2" cm="1">
@@ -4263,37 +4334,39 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>2024331115</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>2.75</v>
       </c>
-      <c r="D99" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="E99" s="5">
+      <c r="D99" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="E99" s="4">
         <v>3</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <v>2.5</v>
       </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="4">
+      <c r="G99" s="5">
+        <v>4</v>
+      </c>
+      <c r="H99" s="3">
         <v>3</v>
       </c>
-      <c r="I99" s="5">
-        <v>4</v>
-      </c>
-      <c r="J99" s="5">
+      <c r="I99" s="4">
+        <v>4</v>
+      </c>
+      <c r="J99" s="4">
         <v>3.5</v>
       </c>
       <c r="K99" s="2" cm="1">
         <f t="array" ref="K99">IF(COUNTIF(C99:J99,0)&gt;0,0,ROUND(SUMPRODUCT(C99:J99,{3,3,3,3,1.5,3,2,1})/SUMPRODUCT((C99:J99&lt;&gt;"")*{3,3,3,3,1.5,3,2,1}),2))</f>
-        <v>3.06</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
@@ -4315,10 +4388,10 @@
       <c r="F100" s="2">
         <v>3.75</v>
       </c>
-      <c r="G100" s="2">
-        <v>4</v>
-      </c>
-      <c r="H100" s="4">
+      <c r="G100" s="5">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
         <v>3.5</v>
       </c>
       <c r="I100" s="2">
